--- a/TestData/LoginData_invalid.xlsx
+++ b/TestData/LoginData_invalid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA ENGINEER\POPULIX\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4203C03A-A6F9-4238-8B41-5EFB17230C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3247787C-B334-4254-964A-87439487D0FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="2115" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4260" yWindow="2235" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>password</t>
   </si>
@@ -28,52 +28,49 @@
     <t>valiantartwear@gamil.com</t>
   </si>
   <si>
-    <t>password4</t>
-  </si>
-  <si>
     <t>gmail@facebook.com</t>
   </si>
   <si>
-    <t>xyz@gamilcom</t>
-  </si>
-  <si>
-    <t>akukamu.populix.co</t>
-  </si>
-  <si>
     <t>password1</t>
   </si>
   <si>
-    <t>password6</t>
-  </si>
-  <si>
     <t>1213651%%</t>
   </si>
   <si>
-    <t>valiant@gmailcom</t>
-  </si>
-  <si>
-    <t>abc@xyz.com</t>
-  </si>
-  <si>
     <t>HAHAHUHU</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>invalid email</t>
   </si>
   <si>
     <t>empty email</t>
   </si>
   <si>
-    <t>empty password</t>
-  </si>
-  <si>
-    <t>valid email</t>
-  </si>
-  <si>
     <t>valiantartwear@gmail.com</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>halo1</t>
+  </si>
+  <si>
+    <t>halo3</t>
+  </si>
+  <si>
+    <t>titovalvala@gmail.com</t>
+  </si>
+  <si>
+    <t>abc@gmailcom</t>
+  </si>
+  <si>
+    <t>batangcoklat</t>
+  </si>
+  <si>
+    <t>invalid password</t>
   </si>
 </sst>
 </file>
@@ -468,128 +465,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="27.42578125" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A6" r:id="rId4" display="akukamu@populix.co" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A4" r:id="rId6" xr:uid="{A2DC2A56-75EB-4065-A423-70978689256C}"/>
-    <hyperlink ref="G2" r:id="rId7" xr:uid="{63C98824-AF41-4A5F-9686-E0657D45DD1E}"/>
-    <hyperlink ref="G3" r:id="rId8" xr:uid="{A3BC3076-7895-4B5D-9601-021850F947F8}"/>
-    <hyperlink ref="G4" r:id="rId9" xr:uid="{BDBA4258-11BB-496D-B574-9AB1ABE69CC1}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{A2DC2A56-75EB-4065-A423-70978689256C}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{9A9DA28D-0452-4538-9213-853F31F9741C}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{734217E8-0A0B-46E9-B10B-01DC949BA024}"/>
+    <hyperlink ref="A10" r:id="rId6" xr:uid="{03F337E9-8D16-429E-8E20-13A55070BAB6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
